--- a/Zeitplanung-Corinne.xlsx
+++ b/Zeitplanung-Corinne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ch10va10.komax.org\v001\users\CH1011920\Documents\BLJ\Projekt\Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0B97BB3-113B-46AA-A793-D3F77D07BD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B0147-61E8-419F-B154-C4671E1E7EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Nr.</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>KW 53</t>
+  </si>
+  <si>
+    <t>PowerPoint</t>
   </si>
 </sst>
 </file>
@@ -1645,16 +1648,16 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,8 +2155,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3427,7 +3430,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3974,7 +3977,7 @@
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -4000,7 +4003,9 @@
       <c r="X25" s="92">
         <v>1</v>
       </c>
-      <c r="Y25" s="92"/>
+      <c r="Y25" s="92">
+        <v>1</v>
+      </c>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="55"/>
@@ -4051,7 +4056,7 @@
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4073,10 +4078,14 @@
       <c r="V26" s="60"/>
       <c r="W26" s="55"/>
       <c r="X26" s="61"/>
-      <c r="Y26" s="92"/>
+      <c r="Y26" s="92">
+        <v>2</v>
+      </c>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="55"/>
+      <c r="AB26" s="55">
+        <v>1</v>
+      </c>
       <c r="AC26" s="55"/>
       <c r="AD26" s="60"/>
       <c r="AE26" s="60"/>
@@ -4122,7 +4131,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4163,8 +4172,12 @@
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
-      <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
+      <c r="AR27" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="55">
+        <v>2</v>
+      </c>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
       <c r="AV27" s="58"/>
@@ -4407,7 +4420,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>1.5</v>
+        <v>29</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4480,7 +4493,7 @@
       </c>
       <c r="D32" s="82">
         <f>SUM(G32:BJ32)</f>
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4504,11 +4517,17 @@
       <c r="V32" s="54"/>
       <c r="W32" s="55"/>
       <c r="X32" s="55"/>
-      <c r="Y32" s="63"/>
+      <c r="Y32" s="63">
+        <v>1.5</v>
+      </c>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="55"/>
+      <c r="AB32" s="92">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="55">
+        <v>2</v>
+      </c>
       <c r="AD32" s="60"/>
       <c r="AE32" s="60"/>
       <c r="AF32" s="60"/>
@@ -4523,8 +4542,12 @@
       <c r="AO32" s="58"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="55"/>
+      <c r="AR32" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS32" s="55">
+        <v>2</v>
+      </c>
       <c r="AT32" s="56"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
@@ -4555,7 +4578,7 @@
       </c>
       <c r="D33" s="82">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4577,11 +4600,17 @@
       <c r="V33" s="60"/>
       <c r="W33" s="55"/>
       <c r="X33" s="55"/>
-      <c r="Y33" s="63"/>
+      <c r="Y33" s="63">
+        <v>1</v>
+      </c>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="55"/>
+      <c r="AB33" s="92">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="55">
+        <v>2.5</v>
+      </c>
       <c r="AD33" s="60"/>
       <c r="AE33" s="60"/>
       <c r="AF33" s="60"/>
@@ -4596,8 +4625,12 @@
       <c r="AO33" s="58"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="92"/>
-      <c r="AS33" s="55"/>
+      <c r="AR33" s="92">
+        <v>3</v>
+      </c>
+      <c r="AS33" s="55">
+        <v>2</v>
+      </c>
       <c r="AT33" s="56"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
@@ -4628,7 +4661,7 @@
       </c>
       <c r="D34" s="82">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4655,8 +4688,12 @@
       <c r="Y34" s="56"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
+      <c r="AB34" s="92">
+        <v>1.5</v>
+      </c>
+      <c r="AC34" s="92">
+        <v>3</v>
+      </c>
       <c r="AD34" s="60"/>
       <c r="AE34" s="60"/>
       <c r="AF34" s="60"/>
@@ -4671,8 +4708,12 @@
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="92"/>
-      <c r="AS34" s="55"/>
+      <c r="AR34" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="AS34" s="55">
+        <v>1.5</v>
+      </c>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
@@ -4987,7 +5028,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5060,7 +5101,7 @@
       </c>
       <c r="D40" s="82">
         <f>SUM(G40:BJ40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5103,7 +5144,9 @@
       <c r="AQ40" s="54"/>
       <c r="AR40" s="92"/>
       <c r="AS40" s="92"/>
-      <c r="AT40" s="63"/>
+      <c r="AT40" s="63">
+        <v>2</v>
+      </c>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
       <c r="AW40" s="53"/>
@@ -5133,7 +5176,7 @@
       </c>
       <c r="D41" s="82">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -5176,7 +5219,9 @@
       <c r="AQ41" s="60"/>
       <c r="AR41" s="92"/>
       <c r="AS41" s="92"/>
-      <c r="AT41" s="63"/>
+      <c r="AT41" s="63">
+        <v>2</v>
+      </c>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
       <c r="AW41" s="59"/>
@@ -5198,11 +5243,13 @@
       <c r="A42" s="12">
         <v>603</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="C42" s="49"/>
       <c r="D42" s="82">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E42" s="50"/>
       <c r="F42" s="51"/>
@@ -5245,7 +5292,9 @@
       <c r="AQ42" s="69"/>
       <c r="AR42" s="55"/>
       <c r="AS42" s="55"/>
-      <c r="AT42" s="56"/>
+      <c r="AT42" s="56">
+        <v>3.5</v>
+      </c>
       <c r="AU42" s="57"/>
       <c r="AV42" s="58"/>
       <c r="AW42" s="68"/>
@@ -5274,7 +5323,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5352,7 +5401,7 @@
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5364,11 +5413,11 @@
       </c>
       <c r="AB43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD43" s="39">
         <f t="shared" si="3"/>
@@ -5428,15 +5477,15 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -5606,7 +5655,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
@@ -5623,7 +5672,7 @@
       </c>
       <c r="D6" s="79">
         <f>Zeitplanung!D31</f>
-        <v>1.5</v>
+        <v>29</v>
       </c>
       <c r="F6" s="80"/>
     </row>
@@ -5655,7 +5704,7 @@
       </c>
       <c r="D8" s="79">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F8" s="80"/>
     </row>
